--- a/DATA_goal/Junction_Flooding_185.xlsx
+++ b/DATA_goal/Junction_Flooding_185.xlsx
@@ -448,13 +448,13 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -463,12 +463,12 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>41617.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.56</v>
+        <v>4.86</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.17</v>
+        <v>4.02</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.26</v>
+        <v>6.03</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.92</v>
+        <v>2.79</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.15</v>
+        <v>2.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.4</v>
+        <v>2.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>267.34</v>
+        <v>26.73</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.26</v>
+        <v>5.03</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.39</v>
+        <v>3.34</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.94</v>
+        <v>2.99</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.9</v>
+        <v>1.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.25</v>
+        <v>5.32</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41617.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.99</v>
+        <v>1.8</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41617.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.88</v>
+        <v>2.49</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.6</v>
+        <v>2.06</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.15</v>
+        <v>0.91</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.8</v>
+        <v>3.28</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
         <v>2.92</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="R4" s="4" t="n">
+      <c r="AG4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AH4" s="4" t="n">
         <v>1.05</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>131.12</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>25.29</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>29.16</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41617.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.73</v>
+        <v>3.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.22</v>
+        <v>3.12</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.85</v>
+        <v>5.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>200.98</v>
+        <v>20.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.24</v>
+        <v>3.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.65</v>
+        <v>2.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.35</v>
+        <v>2.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.87</v>
+        <v>4.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41617.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.04</v>
+        <v>2.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>45.53</v>
+        <v>4.55</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>37.66</v>
+        <v>3.77</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>63.98</v>
+        <v>6.4</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>25.48</v>
+        <v>2.55</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.45</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>243.33</v>
+        <v>24.33</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>46.05</v>
+        <v>4.61</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>30.98</v>
+        <v>3.1</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>31.11</v>
+        <v>3.11</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.23</v>
+        <v>1.92</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>57.97</v>
+        <v>5.8</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41617.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="C7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
         <v>1.37</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>13.66</v>
-      </c>
       <c r="AG7" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41617.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z8" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>4.09</v>
-      </c>
       <c r="AA8" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41617.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>36.42</v>
+        <v>3.64</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>30.12</v>
+        <v>3.01</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>46.18</v>
+        <v>4.62</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.72</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>192.94</v>
+        <v>19.29</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>36.64</v>
+        <v>3.66</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>24.68</v>
+        <v>2.47</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>41.48</v>
+        <v>4.15</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41617.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>22.85</v>
+        <v>2.29</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>18.9</v>
+        <v>1.89</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>34.1</v>
+        <v>3.41</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>118.58</v>
+        <v>11.86</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>31.07</v>
+        <v>3.11</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_185.xlsx
+++ b/DATA_goal/Junction_Flooding_185.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41617.34027777778</v>
+        <v>44866.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.31</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.59</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.86</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.81</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.03</v>
+        <v>0.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.74</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.02</v>
+        <v>0.43</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.8</v>
+        <v>0.34</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.54</v>
+        <v>0.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.3</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AC2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>26.73</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.54</v>
-      </c>
       <c r="AD2" s="4" t="n">
-        <v>1.99</v>
+        <v>0.64</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.32</v>
+        <v>0.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.08</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41617.34722222222</v>
+        <v>44866.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.21</v>
+        <v>1.64</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="E3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.59</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.33</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.4</v>
+        <v>4.54</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.02</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.27</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.23</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1.8</v>
+        <v>19.26</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.52</v>
+        <v>3.66</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.16</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.32</v>
+        <v>2.45</v>
       </c>
       <c r="X3" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Z3" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.31</v>
+        <v>4.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41617.35416666666</v>
+        <v>44866.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.16</v>
+        <v>2.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.83</v>
+        <v>1.65</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.49</v>
+        <v>4.66</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.06</v>
+        <v>3.87</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.28</v>
+        <v>6.48</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.41</v>
+        <v>2.61</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.61</v>
+        <v>1.17</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.92</v>
+        <v>1.81</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>1.98</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.66</v>
       </c>
       <c r="P4" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.67</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.05</v>
+        <v>2.03</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.92</v>
+        <v>5.88</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41617.36111111111</v>
+        <v>44866.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.77</v>
+        <v>3.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.12</v>
+        <v>2.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.18</v>
+        <v>5.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.99</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.69</v>
+        <v>4.55</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41617.36805555555</v>
+        <v>44866.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.1</v>
+        <v>3.68</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.55</v>
+        <v>3.03</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.55</v>
+        <v>8.09</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.77</v>
+        <v>6.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.66</v>
+        <v>3.04</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.4</v>
+        <v>17.24</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.55</v>
+        <v>4.62</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.13</v>
+        <v>2.15</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.69</v>
+        <v>3.4</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.84</v>
+        <v>3.89</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.65</v>
+        <v>2.82</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.38</v>
+        <v>2.48</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>24.33</v>
+        <v>38.38</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.61</v>
+        <v>8.67</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.52</v>
+        <v>2.54</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.1</v>
+        <v>5.83</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.64</v>
+        <v>3.27</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.11</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.34</v>
+        <v>2.37</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.19</v>
+        <v>2.56</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.4</v>
+        <v>2.39</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.92</v>
+        <v>3.8</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.8</v>
+        <v>15.95</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.86</v>
+        <v>1.66</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41617.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41617.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41617.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41617.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41617.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>33.32</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>27.55</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>46.13</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>175.79</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>33.61</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>13.88</v>
+        <v>3.36</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_185.xlsx
+++ b/DATA_goal/Junction_Flooding_185.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44866.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44866.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.05</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.59</v>
+        <v>35.86</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3</v>
+        <v>29.97</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.31</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.54</v>
+        <v>45.44</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.19</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.26</v>
+        <v>192.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.66</v>
+        <v>36.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.45</v>
+        <v>24.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.57</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.37</v>
+        <v>23.7</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.15</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.1</v>
+        <v>41.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44866.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.35</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>249.96</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>5.88</v>
+        <v>58.81</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44866.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.41</v>
+        <v>34.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.84</v>
+        <v>28.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.02</v>
+        <v>50.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.14</v>
+        <v>181.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.34</v>
+        <v>23.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.62</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.55</v>
+        <v>45.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_185.xlsx
+++ b/DATA_goal/Junction_Flooding_185.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44866.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44866.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.4</v>
+        <v>16.404</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.05</v>
+        <v>13.053</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.86</v>
+        <v>35.863</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.97</v>
+        <v>29.971</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.31</v>
+        <v>13.311</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.44</v>
+        <v>45.439</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.19</v>
+        <v>20.194</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.06</v>
+        <v>9.065</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.43</v>
+        <v>14.428</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.03</v>
+        <v>16.028</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.24</v>
+        <v>15.238</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.91</v>
+        <v>3.914</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.72</v>
+        <v>12.719</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.8</v>
+        <v>18.795</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.807</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.134</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.57</v>
+        <v>192.572</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.62</v>
+        <v>36.621</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>11.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.45</v>
+        <v>24.452</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.57</v>
+        <v>13.571</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.79</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.7</v>
+        <v>23.699</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.56</v>
+        <v>10.558</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.46</v>
+        <v>10.458</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.68</v>
+        <v>10.679</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.15</v>
+        <v>16.154</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.03</v>
+        <v>41.026</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7</v>
+        <v>6.995</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.95</v>
+        <v>14.947</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44866.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.35</v>
+        <v>21.351</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.5</v>
+        <v>16.501</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>46.56</v>
+        <v>46.562</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.7</v>
+        <v>38.702</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.05</v>
+        <v>17.048</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>64.8</v>
+        <v>64.80500000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.1</v>
+        <v>26.096</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.74</v>
+        <v>11.736</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.05</v>
+        <v>18.053</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.76</v>
+        <v>19.764</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>19.77</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.22</v>
+        <v>5.223</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.61</v>
+        <v>16.614</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.2</v>
+        <v>24.204</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.97</v>
+        <v>13.973</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.168</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.616</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>249.96</v>
+        <v>249.961</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>47.25</v>
+        <v>47.249</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.25</v>
+        <v>15.246</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.8</v>
+        <v>31.796</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.17</v>
+        <v>17.175</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.26</v>
+        <v>32.261</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.67</v>
+        <v>13.667</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.78</v>
+        <v>12.784</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.99</v>
+        <v>13.993</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>20.31</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>58.81</v>
+        <v>58.813</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9</v>
+        <v>8.997</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.35</v>
+        <v>19.349</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44866.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.36</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_185.xlsx
+++ b/DATA_goal/Junction_Flooding_185.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44866.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.65</v>
+        <v>15.652</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.1</v>
+        <v>12.097</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.14</v>
+        <v>34.142</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.38</v>
+        <v>28.377</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.5</v>
+        <v>12.496</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.18</v>
+        <v>50.181</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.15</v>
+        <v>19.148</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>8.619</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.24</v>
+        <v>13.239</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.51</v>
+        <v>14.506</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.49</v>
+        <v>14.492</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.83</v>
+        <v>3.826</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.18</v>
+        <v>12.176</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.76</v>
+        <v>17.763</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.25</v>
+        <v>10.254</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.36</v>
+        <v>181.355</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.7</v>
+        <v>34.697</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.16</v>
+        <v>11.163</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.36</v>
+        <v>23.357</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.62</v>
+        <v>12.617</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.64</v>
+        <v>1.645</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.48</v>
+        <v>24.485</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.02</v>
+        <v>10.016</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.382</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.26</v>
+        <v>10.263</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.9</v>
+        <v>14.897</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.52</v>
+        <v>45.522</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.62</v>
+        <v>6.619</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.18</v>
+        <v>14.179</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44866.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.36</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_185.xlsx
+++ b/DATA_goal/Junction_Flooding_185.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44866.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.652</v>
+        <v>15.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.097</v>
+        <v>12.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.142</v>
+        <v>34.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.377</v>
+        <v>28.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.496</v>
+        <v>12.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.181</v>
+        <v>50.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.148</v>
+        <v>19.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.619</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.239</v>
+        <v>13.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.506</v>
+        <v>14.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.492</v>
+        <v>14.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.826</v>
+        <v>3.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.176</v>
+        <v>12.18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.763</v>
+        <v>17.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.254</v>
+        <v>10.25</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.355</v>
+        <v>181.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.697</v>
+        <v>34.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.163</v>
+        <v>11.16</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.357</v>
+        <v>23.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.617</v>
+        <v>12.62</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.645</v>
+        <v>1.64</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.485</v>
+        <v>24.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.016</v>
+        <v>10.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.382</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.263</v>
+        <v>10.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.897</v>
+        <v>14.9</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.522</v>
+        <v>45.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.619</v>
+        <v>6.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.179</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44866.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.36</v>
+        <v>14.18</v>
       </c>
     </row>
   </sheetData>
